--- a/Version_20231222/Model result_20240316.xlsx
+++ b/Version_20231222/Model result_20240316.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LinBoH\Desktop\TUM_master_thesis\Version_20231222\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\TUM_master_thesis\Version_20231222\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F77C349-DDF3-4AEE-B17B-9341AF19FD42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B58B0215-01FF-468F-98A7-74B5E9BE9C3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4EC1D862-161F-40E4-8EB3-B26D149D05A9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4EC1D862-161F-40E4-8EB3-B26D149D05A9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="62">
   <si>
     <t>cutout</t>
   </si>
@@ -193,6 +193,36 @@
   </si>
   <si>
     <t>Ridge</t>
+  </si>
+  <si>
+    <t>Berlin Scenario</t>
+  </si>
+  <si>
+    <t>Classification first and regression later</t>
+  </si>
+  <si>
+    <t>no classification and with feature selection</t>
+  </si>
+  <si>
+    <t>no classification and without feature selection</t>
+  </si>
+  <si>
+    <t>Sparse Scenario</t>
+  </si>
+  <si>
+    <t>Small Scenario</t>
+  </si>
+  <si>
+    <t>CL</t>
+  </si>
+  <si>
+    <t>fea</t>
+  </si>
+  <si>
+    <t>nofea</t>
+  </si>
+  <si>
+    <t>algo</t>
   </si>
 </sst>
 </file>
@@ -476,7 +506,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -562,6 +592,9 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -579,6 +612,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -603,9 +642,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -643,7 +682,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -749,7 +788,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -891,7 +930,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -901,8 +940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59822577-468A-43C7-98D2-F67B5BF9DF84}">
   <dimension ref="A1:AC125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O70" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AF86" sqref="AF86"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F95" sqref="F95:I113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -922,18 +961,18 @@
       <c r="A1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34" t="s">
+      <c r="C1" s="35"/>
+      <c r="D1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34" t="s">
+      <c r="E1" s="35"/>
+      <c r="F1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="34"/>
+      <c r="G1" s="35"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
@@ -1133,21 +1172,21 @@
       <c r="A13" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="32"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="31" t="s">
+      <c r="C13" s="33"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="F13" s="32"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="34" t="s">
+      <c r="F13" s="33"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
     </row>
     <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
@@ -1349,11 +1388,11 @@
       <c r="A23" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="35" t="s">
+      <c r="B23" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="C23" s="32"/>
-      <c r="D23" s="33"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="34"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
@@ -1459,18 +1498,18 @@
       <c r="A32" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="F32" s="36" t="s">
+      <c r="F32" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="G32" s="36"/>
-      <c r="H32" s="36"/>
-      <c r="I32" s="36"/>
-      <c r="K32" s="36" t="s">
+      <c r="G32" s="37"/>
+      <c r="H32" s="37"/>
+      <c r="I32" s="37"/>
+      <c r="K32" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="L32" s="36"/>
-      <c r="M32" s="36"/>
-      <c r="N32" s="36"/>
+      <c r="L32" s="37"/>
+      <c r="M32" s="37"/>
+      <c r="N32" s="37"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
@@ -2815,27 +2854,27 @@
       <c r="P77" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="Q77" s="34" t="s">
+      <c r="Q77" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="R77" s="34"/>
-      <c r="S77" s="34"/>
+      <c r="R77" s="35"/>
+      <c r="S77" s="35"/>
       <c r="U77" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="V77" s="34" t="s">
+      <c r="V77" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="W77" s="34"/>
-      <c r="X77" s="34"/>
+      <c r="W77" s="35"/>
+      <c r="X77" s="35"/>
       <c r="Z77" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="AA77" s="34" t="s">
+      <c r="AA77" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="AB77" s="34"/>
-      <c r="AC77" s="34"/>
+      <c r="AB77" s="35"/>
+      <c r="AC77" s="35"/>
     </row>
     <row r="78" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
@@ -3562,27 +3601,27 @@
       <c r="P91" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="Q91" s="31" t="s">
+      <c r="Q91" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="R91" s="32"/>
-      <c r="S91" s="33"/>
+      <c r="R91" s="33"/>
+      <c r="S91" s="34"/>
       <c r="U91" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="V91" s="31" t="s">
+      <c r="V91" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="W91" s="32"/>
-      <c r="X91" s="33"/>
+      <c r="W91" s="33"/>
+      <c r="X91" s="34"/>
       <c r="Z91" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="AA91" s="31" t="s">
+      <c r="AA91" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="AB91" s="32"/>
-      <c r="AC91" s="33"/>
+      <c r="AB91" s="33"/>
+      <c r="AC91" s="34"/>
     </row>
     <row r="92" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="16" t="s">
@@ -3711,40 +3750,40 @@
         <v>16</v>
       </c>
       <c r="P94" s="5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="Q94" s="11">
-        <v>1.2304012237158699</v>
+        <v>1.2383347285341699</v>
       </c>
       <c r="R94" s="11">
-        <v>2.4761240390803398</v>
+        <v>2.5052016766602998</v>
       </c>
       <c r="S94" s="11">
-        <v>6.7714333534240696</v>
+        <v>6.6180807496352303</v>
       </c>
       <c r="U94" s="5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="V94" s="11">
-        <v>1.21267868473551</v>
+        <v>1.22502129422148</v>
       </c>
       <c r="W94" s="11">
-        <v>2.4356857755916801</v>
+        <v>2.4883947048233801</v>
       </c>
       <c r="X94" s="11">
-        <v>6.8018593788146902</v>
+        <v>6.7655604139308396</v>
       </c>
       <c r="Z94" s="5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="AA94" s="11">
-        <v>1.2167169634564401</v>
+        <v>1.21802912891925</v>
       </c>
       <c r="AB94" s="11">
-        <v>2.4414586995378502</v>
+        <v>2.4641944526006099</v>
       </c>
       <c r="AC94" s="11">
-        <v>6.8989615440368599</v>
+        <v>6.7720511075148799</v>
       </c>
     </row>
     <row r="95" spans="1:29" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -3773,40 +3812,40 @@
         <v>278.17142857142801</v>
       </c>
       <c r="P95" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q95" s="11">
-        <v>1.2383347285341699</v>
+        <v>1.26461200110772</v>
       </c>
       <c r="R95" s="11">
-        <v>2.5052016766602998</v>
+        <v>2.5852581911857899</v>
       </c>
       <c r="S95" s="11">
-        <v>6.6180807496352303</v>
+        <v>6.8877220591485697</v>
       </c>
       <c r="U95" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="V95" s="11">
-        <v>1.22502129422148</v>
+        <v>1.2537104080186501</v>
       </c>
       <c r="W95" s="11">
-        <v>2.4883947048233801</v>
+        <v>2.5472946691873202</v>
       </c>
       <c r="X95" s="11">
-        <v>6.7655604139308396</v>
+        <v>6.9252438393500899</v>
       </c>
       <c r="Z95" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AA95" s="11">
-        <v>1.21802912891925</v>
+        <v>1.2787039802729301</v>
       </c>
       <c r="AB95" s="11">
-        <v>2.4641944526006099</v>
+        <v>2.6320299189474801</v>
       </c>
       <c r="AC95" s="11">
-        <v>6.7720511075148799</v>
+        <v>7.3340258821341298</v>
       </c>
     </row>
     <row r="96" spans="1:29" x14ac:dyDescent="0.25">
@@ -3835,40 +3874,40 @@
         <v>195.208352225167</v>
       </c>
       <c r="P96" s="5" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="Q96" s="11">
-        <v>1.26461200110772</v>
+        <v>1.24871759554257</v>
       </c>
       <c r="R96" s="11">
-        <v>2.5852581911857899</v>
+        <v>2.53935130455451</v>
       </c>
       <c r="S96" s="11">
-        <v>6.8877220591485697</v>
+        <v>6.9654495085180397</v>
       </c>
       <c r="U96" s="5" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="V96" s="11">
-        <v>1.2537104080186501</v>
+        <v>1.2246517706284401</v>
       </c>
       <c r="W96" s="11">
-        <v>2.5472946691873202</v>
+        <v>2.4528252893967402</v>
       </c>
       <c r="X96" s="11">
-        <v>6.9252438393500899</v>
+        <v>6.2266296800383696</v>
       </c>
       <c r="Z96" s="5" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="AA96" s="11">
-        <v>1.2787039802729301</v>
+        <v>1.24549515484387</v>
       </c>
       <c r="AB96" s="11">
-        <v>2.6320299189474801</v>
+        <v>2.5081469489951802</v>
       </c>
       <c r="AC96" s="11">
-        <v>7.3340258821341298</v>
+        <v>6.8354597711716902</v>
       </c>
     </row>
     <row r="97" spans="1:29" x14ac:dyDescent="0.25">
@@ -3897,40 +3936,40 @@
         <v>149.36160196369801</v>
       </c>
       <c r="P97" s="5" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="Q97" s="11">
-        <v>1.2411572846236101</v>
+        <v>1.2394810264318099</v>
       </c>
       <c r="R97" s="11">
-        <v>2.5117001402459702</v>
+        <v>2.4919038211321398</v>
       </c>
       <c r="S97" s="11">
-        <v>6.99633012592684</v>
+        <v>6.8844826189355697</v>
       </c>
       <c r="U97" s="5" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="V97" s="11">
-        <v>1.2195734444705399</v>
+        <v>1.2285862853852201</v>
       </c>
       <c r="W97" s="11">
-        <v>2.4813732500940202</v>
+        <v>2.4760624207015498</v>
       </c>
       <c r="X97" s="11">
-        <v>6.68470005073587</v>
+        <v>6.8862533859797601</v>
       </c>
       <c r="Z97" s="5" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="AA97" s="11">
-        <v>1.2208749380522099</v>
+        <v>1.2331883857030901</v>
       </c>
       <c r="AB97" s="11">
-        <v>2.4692364202572099</v>
+        <v>2.4956422538932101</v>
       </c>
       <c r="AC97" s="11">
-        <v>6.7533132333371704</v>
+        <v>6.9076108907808198</v>
       </c>
     </row>
     <row r="98" spans="1:29" x14ac:dyDescent="0.25">
@@ -3959,40 +3998,40 @@
         <v>166.99110231131399</v>
       </c>
       <c r="P98" s="5" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="Q98" s="11">
-        <v>1.24871759554257</v>
+        <v>1.23919296949404</v>
       </c>
       <c r="R98" s="11">
-        <v>2.53935130455451</v>
+        <v>2.4909007695974301</v>
       </c>
       <c r="S98" s="11">
-        <v>6.9654495085180397</v>
+        <v>6.8871635490402303</v>
       </c>
       <c r="U98" s="5" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="V98" s="11">
-        <v>1.2246517706284401</v>
+        <v>1.2282113873268701</v>
       </c>
       <c r="W98" s="11">
-        <v>2.4528252893967402</v>
+        <v>2.4739762826986098</v>
       </c>
       <c r="X98" s="11">
-        <v>6.2266296800383696</v>
+        <v>6.8869062513092798</v>
       </c>
       <c r="Z98" s="5" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="AA98" s="11">
-        <v>1.24549515484387</v>
+        <v>1.23128275165671</v>
       </c>
       <c r="AB98" s="11">
-        <v>2.5081469489951802</v>
+        <v>2.4882653922659399</v>
       </c>
       <c r="AC98" s="11">
-        <v>6.8354597711716902</v>
+        <v>6.9056167977081904</v>
       </c>
     </row>
     <row r="99" spans="1:29" x14ac:dyDescent="0.25">
@@ -4020,41 +4059,41 @@
       <c r="I99" s="17">
         <v>176.59651232147101</v>
       </c>
-      <c r="P99" s="5" t="s">
-        <v>23</v>
+      <c r="P99" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="Q99" s="11">
-        <v>2.3595699602476699</v>
+        <v>1.23948656937547</v>
       </c>
       <c r="R99" s="11">
-        <v>9.6261474214970697</v>
+        <v>2.4919004833319001</v>
       </c>
       <c r="S99" s="11">
-        <v>12.3512465672716</v>
-      </c>
-      <c r="U99" s="5" t="s">
-        <v>23</v>
+        <v>6.8848344594300199</v>
+      </c>
+      <c r="U99" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="V99" s="11">
-        <v>2.1684446909944501</v>
+        <v>1.2285911750752201</v>
       </c>
       <c r="W99" s="11">
-        <v>8.0315142031024198</v>
+        <v>2.4760067882063099</v>
       </c>
       <c r="X99" s="11">
-        <v>12.082442311986</v>
-      </c>
-      <c r="Z99" s="5" t="s">
-        <v>23</v>
+        <v>6.8866158781182296</v>
+      </c>
+      <c r="Z99" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="AA99" s="11">
-        <v>2.1299225878578101</v>
+        <v>1.2331567173115701</v>
       </c>
       <c r="AB99" s="11">
-        <v>7.6447203985482099</v>
+        <v>2.49546762461169</v>
       </c>
       <c r="AC99" s="11">
-        <v>11.9649709168066</v>
+        <v>6.9076604943863602</v>
       </c>
     </row>
     <row r="100" spans="1:29" x14ac:dyDescent="0.25">
@@ -4082,42 +4121,35 @@
       <c r="I100" s="17">
         <v>364.94809386341598</v>
       </c>
-      <c r="P100" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q100" s="11">
-        <v>1.2394810264318099</v>
-      </c>
-      <c r="R100" s="11">
-        <v>2.4919038211321398</v>
-      </c>
-      <c r="S100" s="11">
-        <v>6.8844826189355697</v>
+      <c r="P100" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q100" s="27">
+        <v>1.24671065807342</v>
+      </c>
+      <c r="R100" s="27">
+        <v>2.5497550964355402</v>
       </c>
       <c r="U100" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="V100" s="11">
-        <v>1.2285862853852201</v>
+        <v>45</v>
+      </c>
+      <c r="V100" s="29">
+        <v>1.24222159385681</v>
       </c>
       <c r="W100" s="11">
-        <v>2.4760624207015498</v>
-      </c>
-      <c r="X100" s="11">
-        <v>6.8862533859797601</v>
-      </c>
+        <v>2.53688240051269</v>
+      </c>
+      <c r="X100" s="28"/>
       <c r="Z100" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA100" s="11">
-        <v>1.2331883857030901</v>
+        <v>45</v>
+      </c>
+      <c r="AA100" s="29">
+        <v>1.2678852081298799</v>
       </c>
       <c r="AB100" s="11">
-        <v>2.4956422538932101</v>
-      </c>
-      <c r="AC100" s="11">
-        <v>6.9076108907808198</v>
-      </c>
+        <v>2.6837780475616402</v>
+      </c>
+      <c r="AC100" s="28"/>
     </row>
     <row r="101" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
@@ -4145,110 +4177,117 @@
         <v>268.54821561881499</v>
       </c>
       <c r="P101" s="5" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="Q101" s="11">
-        <v>1.23919296949404</v>
+        <v>1.2304012237158699</v>
       </c>
       <c r="R101" s="11">
-        <v>2.4909007695974301</v>
+        <v>2.4761240390803398</v>
       </c>
       <c r="S101" s="11">
-        <v>6.8871635490402303</v>
+        <v>6.7714333534240696</v>
       </c>
       <c r="U101" s="5" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="V101" s="11">
-        <v>1.2282113873268701</v>
+        <v>1.21267868473551</v>
       </c>
       <c r="W101" s="11">
-        <v>2.4739762826986098</v>
+        <v>2.4356857755916801</v>
       </c>
       <c r="X101" s="11">
-        <v>6.8869062513092798</v>
+        <v>6.8018593788146902</v>
       </c>
       <c r="Z101" s="5" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="AA101" s="11">
-        <v>1.23128275165671</v>
+        <v>1.2167169634564401</v>
       </c>
       <c r="AB101" s="11">
-        <v>2.4882653922659399</v>
+        <v>2.4414586995378502</v>
       </c>
       <c r="AC101" s="11">
-        <v>6.9056167977081904</v>
+        <v>6.8989615440368599</v>
       </c>
     </row>
     <row r="102" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="P102" s="4" t="s">
-        <v>51</v>
+      <c r="P102" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="Q102" s="11">
-        <v>1.23948656937547</v>
+        <v>1.2411572846236101</v>
       </c>
       <c r="R102" s="11">
-        <v>2.4919004833319001</v>
+        <v>2.5117001402459702</v>
       </c>
       <c r="S102" s="11">
-        <v>6.8848344594300199</v>
-      </c>
-      <c r="U102" s="4" t="s">
-        <v>51</v>
+        <v>6.99633012592684</v>
+      </c>
+      <c r="U102" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="V102" s="11">
-        <v>1.2285911750752201</v>
+        <v>1.2195734444705399</v>
       </c>
       <c r="W102" s="11">
-        <v>2.4760067882063099</v>
+        <v>2.4813732500940202</v>
       </c>
       <c r="X102" s="11">
-        <v>6.8866158781182296</v>
-      </c>
-      <c r="Z102" s="4" t="s">
-        <v>51</v>
+        <v>6.68470005073587</v>
+      </c>
+      <c r="Z102" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="AA102" s="11">
-        <v>1.2331567173115701</v>
+        <v>1.2208749380522099</v>
       </c>
       <c r="AB102" s="11">
-        <v>2.49546762461169</v>
+        <v>2.4692364202572099</v>
       </c>
       <c r="AC102" s="11">
-        <v>6.9076604943863602</v>
+        <v>6.7533132333371704</v>
       </c>
     </row>
     <row r="103" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="P103" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q103" s="27">
-        <v>1.24671065807342</v>
-      </c>
-      <c r="R103" s="27">
-        <v>2.5497550964355402</v>
+      <c r="P103" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q103" s="11">
+        <v>2.3595699602476699</v>
+      </c>
+      <c r="R103" s="11">
+        <v>9.6261474214970697</v>
+      </c>
+      <c r="S103" s="11">
+        <v>12.3512465672716</v>
       </c>
       <c r="U103" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="V103" s="29">
-        <v>1.24222159385681</v>
+        <v>23</v>
+      </c>
+      <c r="V103" s="11">
+        <v>2.1684446909944501</v>
       </c>
       <c r="W103" s="11">
-        <v>2.53688240051269</v>
-      </c>
-      <c r="X103" s="28"/>
+        <v>8.0315142031024198</v>
+      </c>
+      <c r="X103" s="11">
+        <v>12.082442311986</v>
+      </c>
       <c r="Z103" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA103" s="29">
-        <v>1.2678852081298799</v>
+        <v>23</v>
+      </c>
+      <c r="AA103" s="11">
+        <v>2.1299225878578101</v>
       </c>
       <c r="AB103" s="11">
-        <v>2.6837780475616402</v>
-      </c>
-      <c r="AC103" s="28"/>
+        <v>7.6447203985482099</v>
+      </c>
+      <c r="AC103" s="11">
+        <v>11.9649709168066</v>
+      </c>
     </row>
     <row r="104" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A104" s="16" t="s">
@@ -5078,4 +5117,1591 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D54DABB0-27FB-4861-97BB-9935100136C8}">
+  <dimension ref="A1:S41"/>
+  <sheetViews>
+    <sheetView topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34:I41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="21"/>
+      <c r="D3" s="22"/>
+      <c r="F3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="21"/>
+      <c r="I3" s="22"/>
+      <c r="K3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="M3" s="21"/>
+      <c r="N3" s="22"/>
+    </row>
+    <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="R4" t="s">
+        <v>59</v>
+      </c>
+      <c r="S4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="17">
+        <v>10.6557732108941</v>
+      </c>
+      <c r="C5" s="17">
+        <v>469.18341351036003</v>
+      </c>
+      <c r="D5" s="17">
+        <v>202.08510638297801</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="17">
+        <v>9.9326086615531306</v>
+      </c>
+      <c r="H5" s="17">
+        <v>418.10448024140697</v>
+      </c>
+      <c r="I5" s="17">
+        <v>200.756877403066</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="17">
+        <v>19.349740828939801</v>
+      </c>
+      <c r="M5" s="17">
+        <v>962.85574163244905</v>
+      </c>
+      <c r="N5" s="17">
+        <v>259.22511877869101</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q5" s="17">
+        <v>36.945522562261502</v>
+      </c>
+      <c r="R5" s="17">
+        <v>24.977551734197</v>
+      </c>
+      <c r="S5" s="17">
+        <v>23.191716911631399</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="17">
+        <v>9.4797432342051202</v>
+      </c>
+      <c r="C6" s="17">
+        <v>315.85076706056401</v>
+      </c>
+      <c r="D6" s="17">
+        <v>177.21487829380499</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="17">
+        <v>10.347945784227299</v>
+      </c>
+      <c r="H6" s="17">
+        <v>457.05165252374502</v>
+      </c>
+      <c r="I6" s="17">
+        <v>256.70748915226199</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" s="17">
+        <v>10.6107529345259</v>
+      </c>
+      <c r="M6" s="17">
+        <v>342.91042204128502</v>
+      </c>
+      <c r="N6" s="17">
+        <v>202.072736522459</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q6" s="17">
+        <v>27.1724233948567</v>
+      </c>
+      <c r="R6" s="17">
+        <v>22.4441442795775</v>
+      </c>
+      <c r="S6" s="17">
+        <v>23.863222124575699</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="17">
+        <v>9.9838516157507193</v>
+      </c>
+      <c r="C7" s="17">
+        <v>395.81971632069798</v>
+      </c>
+      <c r="D7" s="17">
+        <v>185.52828878861499</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="17">
+        <v>9.3236512894313393</v>
+      </c>
+      <c r="H7" s="17">
+        <v>356.962203714851</v>
+      </c>
+      <c r="I7" s="17">
+        <v>206.56060606060601</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" s="17">
+        <v>9.9159616236366599</v>
+      </c>
+      <c r="M7" s="17">
+        <v>345.50768894967098</v>
+      </c>
+      <c r="N7" s="17">
+        <v>209.91050000000001</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q7" s="17">
+        <v>30.515600165258999</v>
+      </c>
+      <c r="R7" s="17">
+        <v>22.0843241824495</v>
+      </c>
+      <c r="S7" s="17">
+        <v>21.088116941389</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="17">
+        <v>11.042954956512901</v>
+      </c>
+      <c r="C8" s="17">
+        <v>441.85978423764499</v>
+      </c>
+      <c r="D8" s="17">
+        <v>283.84423682092398</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="17">
+        <v>9.4152290859407994</v>
+      </c>
+      <c r="H8" s="17">
+        <v>369.245717134823</v>
+      </c>
+      <c r="I8" s="17">
+        <v>469.36818182795002</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L8" s="17">
+        <v>12.0912604941153</v>
+      </c>
+      <c r="M8" s="17">
+        <v>440.044314641634</v>
+      </c>
+      <c r="N8" s="17">
+        <v>220.50840443176901</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q8" s="17">
+        <v>25.991858087575899</v>
+      </c>
+      <c r="R8" s="17">
+        <v>20.614071907171201</v>
+      </c>
+      <c r="S8" s="17">
+        <v>38.077984008344302</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="24">
+        <v>11.724844932556101</v>
+      </c>
+      <c r="C9" s="24">
+        <v>526.41265869140602</v>
+      </c>
+      <c r="D9" s="24"/>
+      <c r="F9" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="17">
+        <v>9.8016386032104492</v>
+      </c>
+      <c r="H9" s="17">
+        <v>402.02746582031199</v>
+      </c>
+      <c r="I9" s="25"/>
+      <c r="K9" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="L9" s="17">
+        <v>11.9323635101318</v>
+      </c>
+      <c r="M9" s="17">
+        <v>429.40222167968699</v>
+      </c>
+      <c r="N9" s="25"/>
+      <c r="P9" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q9" s="24">
+        <v>33.522117614746001</v>
+      </c>
+      <c r="R9" s="17">
+        <v>25.1896057128906</v>
+      </c>
+      <c r="S9" s="17">
+        <v>22.463241577148398</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="11">
+        <v>11.633064134096299</v>
+      </c>
+      <c r="C10" s="11">
+        <v>479.97085742432603</v>
+      </c>
+      <c r="D10" s="11">
+        <v>203.787311528049</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="11">
+        <v>12.0295611261418</v>
+      </c>
+      <c r="H10" s="11">
+        <v>484.35062287210798</v>
+      </c>
+      <c r="I10" s="11">
+        <v>204.45348452593299</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="L10" s="11">
+        <v>25.183717100124198</v>
+      </c>
+      <c r="M10" s="11">
+        <v>1416.9691949380001</v>
+      </c>
+      <c r="N10" s="11">
+        <v>223.68591915614201</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q10" s="11">
+        <v>27.690217826801501</v>
+      </c>
+      <c r="R10" s="11">
+        <v>20.491419315634399</v>
+      </c>
+      <c r="S10" s="11">
+        <v>19.7934459524555</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="11">
+        <v>11.0909101130362</v>
+      </c>
+      <c r="C11" s="11">
+        <v>410.85235662568601</v>
+      </c>
+      <c r="D11" s="11">
+        <v>210.73379700048699</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" s="11">
+        <v>12.0374701515002</v>
+      </c>
+      <c r="H11" s="11">
+        <v>466.891082674031</v>
+      </c>
+      <c r="I11" s="11">
+        <v>223.11102916107001</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="L11" s="11">
+        <v>12.0757732726152</v>
+      </c>
+      <c r="M11" s="11">
+        <v>467.95199317548003</v>
+      </c>
+      <c r="N11" s="11">
+        <v>221.66753955038999</v>
+      </c>
+      <c r="P11" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q11" s="11">
+        <v>27.6559664595265</v>
+      </c>
+      <c r="R11" s="11">
+        <v>19.922086852496601</v>
+      </c>
+      <c r="S11" s="11">
+        <v>19.9400243792123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="11">
+        <v>11.605446685599</v>
+      </c>
+      <c r="C12" s="11">
+        <v>477.23043737198702</v>
+      </c>
+      <c r="D12" s="11">
+        <v>204.10476971179099</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" s="11">
+        <v>12.0016696537842</v>
+      </c>
+      <c r="H12" s="11">
+        <v>481.60043960417602</v>
+      </c>
+      <c r="I12" s="11">
+        <v>204.74302954197799</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="L12" s="11">
+        <v>25.166675012846</v>
+      </c>
+      <c r="M12" s="11">
+        <v>1415.2334945390901</v>
+      </c>
+      <c r="N12" s="11">
+        <v>223.1453497903</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q12" s="11">
+        <v>27.688899738662101</v>
+      </c>
+      <c r="R12" s="11">
+        <v>20.492120623693499</v>
+      </c>
+      <c r="S12" s="11">
+        <v>19.7952146614386</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="38"/>
+      <c r="N16" s="38"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="L17" s="39"/>
+      <c r="M17" s="39"/>
+      <c r="N17" s="39"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="F18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="K18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L18" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="M18" s="35"/>
+      <c r="N18" s="35"/>
+    </row>
+    <row r="19" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="11">
+        <v>3.5868872229857298</v>
+      </c>
+      <c r="C20" s="11">
+        <v>36.945522562261502</v>
+      </c>
+      <c r="D20" s="11">
+        <v>36</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" s="11">
+        <v>3.3162068701510798</v>
+      </c>
+      <c r="H20" s="11">
+        <v>24.977551734197</v>
+      </c>
+      <c r="I20" s="11">
+        <v>30.625</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L20" s="11">
+        <v>3.27052947333702</v>
+      </c>
+      <c r="M20" s="11">
+        <v>23.191716911631399</v>
+      </c>
+      <c r="N20" s="11">
+        <v>24.849646698334801</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="11">
+        <v>3.2790074618608598</v>
+      </c>
+      <c r="C21" s="11">
+        <v>27.1724233948567</v>
+      </c>
+      <c r="D21" s="11">
+        <v>26.024980259499799</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" s="11">
+        <v>3.1333943414874601</v>
+      </c>
+      <c r="H21" s="11">
+        <v>22.4441442795775</v>
+      </c>
+      <c r="I21" s="11">
+        <v>25.391741527079802</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L21" s="11">
+        <v>3.2258911936530499</v>
+      </c>
+      <c r="M21" s="11">
+        <v>23.863222124575699</v>
+      </c>
+      <c r="N21" s="11">
+        <v>27.837862704744399</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="11">
+        <v>3.37035041321381</v>
+      </c>
+      <c r="C22" s="11">
+        <v>30.515600165258999</v>
+      </c>
+      <c r="D22" s="11">
+        <v>25.079445294098999</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="11">
+        <v>3.0856959691268302</v>
+      </c>
+      <c r="H22" s="11">
+        <v>22.0843241824495</v>
+      </c>
+      <c r="I22" s="11">
+        <v>22.151872546330502</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L22" s="11">
+        <v>3.0051058267776001</v>
+      </c>
+      <c r="M22" s="11">
+        <v>21.088116941389</v>
+      </c>
+      <c r="N22" s="11">
+        <v>22.525604065702801</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="11">
+        <v>3.2450778412328201</v>
+      </c>
+      <c r="C23" s="11">
+        <v>25.991858087575899</v>
+      </c>
+      <c r="D23" s="11">
+        <v>21</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G23" s="11">
+        <v>3.1975575743126501</v>
+      </c>
+      <c r="H23" s="11">
+        <v>20.614071907171201</v>
+      </c>
+      <c r="I23" s="11">
+        <v>19.291233591080999</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L23" s="11">
+        <v>4.5629309510226497</v>
+      </c>
+      <c r="M23" s="11">
+        <v>38.077984008344302</v>
+      </c>
+      <c r="N23" s="11">
+        <v>23.397216603740901</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="11">
+        <v>4.23034191131591</v>
+      </c>
+      <c r="C24" s="11">
+        <v>33.522117614746001</v>
+      </c>
+      <c r="D24" s="11"/>
+      <c r="F24" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G24" s="11">
+        <v>2.8923709392547599</v>
+      </c>
+      <c r="H24" s="11">
+        <v>25.1896057128906</v>
+      </c>
+      <c r="I24" s="11"/>
+      <c r="K24" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="L24" s="11">
+        <v>3.2463924884796098</v>
+      </c>
+      <c r="M24" s="11">
+        <v>22.463241577148398</v>
+      </c>
+      <c r="N24" s="11"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="11">
+        <v>3.4002864102743802</v>
+      </c>
+      <c r="C25" s="11">
+        <v>27.690217826801501</v>
+      </c>
+      <c r="D25" s="11">
+        <v>21</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G25" s="11">
+        <v>3.2006074923618701</v>
+      </c>
+      <c r="H25" s="11">
+        <v>20.491419315634399</v>
+      </c>
+      <c r="I25" s="11">
+        <v>19.1255560341204</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="L25" s="11">
+        <v>3.1764510306178599</v>
+      </c>
+      <c r="M25" s="11">
+        <v>19.7934459524555</v>
+      </c>
+      <c r="N25" s="11">
+        <v>18.698194015591799</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="11">
+        <v>3.39845275769229</v>
+      </c>
+      <c r="C26" s="11">
+        <v>27.6559664595265</v>
+      </c>
+      <c r="D26" s="11">
+        <v>21</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G26" s="11">
+        <v>3.19021686476639</v>
+      </c>
+      <c r="H26" s="11">
+        <v>19.922086852496601</v>
+      </c>
+      <c r="I26" s="11">
+        <v>18.729909812945799</v>
+      </c>
+      <c r="K26" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="L26" s="11">
+        <v>3.1936921357788002</v>
+      </c>
+      <c r="M26" s="11">
+        <v>19.9400243792123</v>
+      </c>
+      <c r="N26" s="11">
+        <v>18.8021087118323</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" s="11">
+        <v>3.4002155303041302</v>
+      </c>
+      <c r="C27" s="11">
+        <v>27.688899738662101</v>
+      </c>
+      <c r="D27" s="11">
+        <v>21</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G27" s="11">
+        <v>3.20071717823352</v>
+      </c>
+      <c r="H27" s="11">
+        <v>20.492120623693499</v>
+      </c>
+      <c r="I27" s="11">
+        <v>19.124954880533501</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="L27" s="11">
+        <v>3.1764967752671698</v>
+      </c>
+      <c r="M27" s="11">
+        <v>19.7952146614386</v>
+      </c>
+      <c r="N27" s="11">
+        <v>18.661750070507299</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="16"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="16"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="38"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="38"/>
+      <c r="K30" s="38"/>
+      <c r="L30" s="38"/>
+      <c r="M30" s="38"/>
+      <c r="N30" s="38"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31" s="39"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="G31" s="39"/>
+      <c r="H31" s="39"/>
+      <c r="I31" s="39"/>
+      <c r="J31" s="31"/>
+      <c r="K31" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="L31" s="39"/>
+      <c r="M31" s="39"/>
+      <c r="N31" s="39"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="33"/>
+      <c r="D32" s="34"/>
+      <c r="F32" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G32" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="H32" s="33"/>
+      <c r="I32" s="34"/>
+      <c r="K32" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L32" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="M32" s="33"/>
+      <c r="N32" s="34"/>
+    </row>
+    <row r="33" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B34" s="11">
+        <v>1.2609561752988001</v>
+      </c>
+      <c r="C34" s="11">
+        <v>2.5863920859770699</v>
+      </c>
+      <c r="D34" s="11">
+        <v>7.4166666666666599</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G34" s="11">
+        <v>1.2473887256492799</v>
+      </c>
+      <c r="H34" s="11">
+        <v>2.5473124542047998</v>
+      </c>
+      <c r="I34" s="11">
+        <v>7.2680894409086898</v>
+      </c>
+      <c r="K34" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L34" s="11">
+        <v>1.3588484529129199</v>
+      </c>
+      <c r="M34" s="11">
+        <v>3.0336995392405299</v>
+      </c>
+      <c r="N34" s="11">
+        <v>7.9987450907323199</v>
+      </c>
+      <c r="Q34" s="11">
+        <v>2.5863920859770699</v>
+      </c>
+      <c r="R34" s="11">
+        <v>2.5473124542047998</v>
+      </c>
+      <c r="S34" s="11">
+        <v>3.0336995392405299</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B35" s="11">
+        <v>1.2383347285341699</v>
+      </c>
+      <c r="C35" s="11">
+        <v>2.5052016766602998</v>
+      </c>
+      <c r="D35" s="11">
+        <v>6.6180807496352303</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G35" s="11">
+        <v>1.22502129422148</v>
+      </c>
+      <c r="H35" s="11">
+        <v>2.4883947048233801</v>
+      </c>
+      <c r="I35" s="11">
+        <v>6.7655604139308396</v>
+      </c>
+      <c r="K35" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L35" s="11">
+        <v>1.21802912891925</v>
+      </c>
+      <c r="M35" s="11">
+        <v>2.4641944526006099</v>
+      </c>
+      <c r="N35" s="11">
+        <v>6.7720511075148799</v>
+      </c>
+      <c r="Q35" s="11">
+        <v>2.5052016766602998</v>
+      </c>
+      <c r="R35" s="11">
+        <v>2.4883947048233801</v>
+      </c>
+      <c r="S35" s="11">
+        <v>2.4641944526006099</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B36" s="11">
+        <v>1.26461200110772</v>
+      </c>
+      <c r="C36" s="11">
+        <v>2.5852581911857899</v>
+      </c>
+      <c r="D36" s="11">
+        <v>6.8877220591485697</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G36" s="11">
+        <v>1.2537104080186501</v>
+      </c>
+      <c r="H36" s="11">
+        <v>2.5472946691873202</v>
+      </c>
+      <c r="I36" s="11">
+        <v>6.9252438393500899</v>
+      </c>
+      <c r="K36" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L36" s="11">
+        <v>1.2787039802729301</v>
+      </c>
+      <c r="M36" s="11">
+        <v>2.6320299189474801</v>
+      </c>
+      <c r="N36" s="11">
+        <v>7.3340258821341298</v>
+      </c>
+      <c r="Q36" s="11">
+        <v>2.5852581911857899</v>
+      </c>
+      <c r="R36" s="11">
+        <v>2.5472946691873202</v>
+      </c>
+      <c r="S36" s="11">
+        <v>2.6320299189474801</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" s="11">
+        <v>1.24871759554257</v>
+      </c>
+      <c r="C37" s="11">
+        <v>2.53935130455451</v>
+      </c>
+      <c r="D37" s="11">
+        <v>6.9654495085180397</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G37" s="11">
+        <v>1.2246517706284401</v>
+      </c>
+      <c r="H37" s="11">
+        <v>2.4528252893967402</v>
+      </c>
+      <c r="I37" s="11">
+        <v>6.2266296800383696</v>
+      </c>
+      <c r="K37" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L37" s="11">
+        <v>1.24549515484387</v>
+      </c>
+      <c r="M37" s="11">
+        <v>2.5081469489951802</v>
+      </c>
+      <c r="N37" s="11">
+        <v>6.8354597711716902</v>
+      </c>
+      <c r="Q37" s="11">
+        <v>2.53935130455451</v>
+      </c>
+      <c r="R37" s="11">
+        <v>2.4528252893967402</v>
+      </c>
+      <c r="S37" s="11">
+        <v>2.5081469489951802</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" s="11">
+        <v>1.24671065807342</v>
+      </c>
+      <c r="C38" s="11">
+        <v>2.5497550964355402</v>
+      </c>
+      <c r="D38" s="28"/>
+      <c r="F38" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G38" s="29">
+        <v>1.24222159385681</v>
+      </c>
+      <c r="H38" s="11">
+        <v>2.53688240051269</v>
+      </c>
+      <c r="I38" s="28"/>
+      <c r="K38" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="L38" s="29">
+        <v>1.2678852081298799</v>
+      </c>
+      <c r="M38" s="11">
+        <v>2.6837780475616402</v>
+      </c>
+      <c r="N38" s="28"/>
+      <c r="Q38" s="11">
+        <v>2.5497550964355402</v>
+      </c>
+      <c r="R38" s="11">
+        <v>2.53688240051269</v>
+      </c>
+      <c r="S38" s="11">
+        <v>2.6837780475616402</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B39" s="11">
+        <v>1.2394810264318099</v>
+      </c>
+      <c r="C39" s="11">
+        <v>2.4919038211321398</v>
+      </c>
+      <c r="D39" s="11">
+        <v>6.8844826189355697</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G39" s="11">
+        <v>1.2285862853852201</v>
+      </c>
+      <c r="H39" s="11">
+        <v>2.4760624207015498</v>
+      </c>
+      <c r="I39" s="11">
+        <v>6.8862533859797601</v>
+      </c>
+      <c r="K39" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="L39" s="11">
+        <v>1.2331883857030901</v>
+      </c>
+      <c r="M39" s="11">
+        <v>2.4956422538932101</v>
+      </c>
+      <c r="N39" s="11">
+        <v>6.9076108907808198</v>
+      </c>
+      <c r="Q39" s="11">
+        <v>2.4919038211321398</v>
+      </c>
+      <c r="R39" s="11">
+        <v>2.4760624207015498</v>
+      </c>
+      <c r="S39" s="11">
+        <v>2.4956422538932101</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B40" s="11">
+        <v>1.23919296949404</v>
+      </c>
+      <c r="C40" s="11">
+        <v>2.4909007695974301</v>
+      </c>
+      <c r="D40" s="11">
+        <v>6.8871635490402303</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G40" s="11">
+        <v>1.2282113873268701</v>
+      </c>
+      <c r="H40" s="11">
+        <v>2.4739762826986098</v>
+      </c>
+      <c r="I40" s="11">
+        <v>6.8869062513092798</v>
+      </c>
+      <c r="K40" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="L40" s="11">
+        <v>1.23128275165671</v>
+      </c>
+      <c r="M40" s="11">
+        <v>2.4882653922659399</v>
+      </c>
+      <c r="N40" s="11">
+        <v>6.9056167977081904</v>
+      </c>
+      <c r="Q40" s="11">
+        <v>2.4909007695974301</v>
+      </c>
+      <c r="R40" s="11">
+        <v>2.4739762826986098</v>
+      </c>
+      <c r="S40" s="11">
+        <v>2.4882653922659399</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B41" s="11">
+        <v>1.23948656937547</v>
+      </c>
+      <c r="C41" s="11">
+        <v>2.4919004833319001</v>
+      </c>
+      <c r="D41" s="11">
+        <v>6.8848344594300199</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G41" s="11">
+        <v>1.2285911750752201</v>
+      </c>
+      <c r="H41" s="11">
+        <v>2.4760067882063099</v>
+      </c>
+      <c r="I41" s="11">
+        <v>6.8866158781182296</v>
+      </c>
+      <c r="K41" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="L41" s="11">
+        <v>1.2331567173115701</v>
+      </c>
+      <c r="M41" s="11">
+        <v>2.49546762461169</v>
+      </c>
+      <c r="N41" s="11">
+        <v>6.9076604943863602</v>
+      </c>
+      <c r="Q41" s="11">
+        <v>2.4919004833319001</v>
+      </c>
+      <c r="R41" s="11">
+        <v>2.4760067882063099</v>
+      </c>
+      <c r="S41" s="11">
+        <v>2.49546762461169</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="A30:N30"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="L32:N32"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="K31:N31"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="K17:N17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A16:N16"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="A2:D2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B3:B9 L3:L9 G3:G9">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFC00000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5:B9 L5:L9 G5:G9">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF92D050"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFE73E09"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:C9 M3:M9 H3:H9">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFC00000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5:C9 M5:M9 H5:H9">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF92D050"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFE73E09"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF92D050"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFE73E09"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D9 N3:N9 I3:I9">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFC00000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5:D9 N5:N9 I5:I9">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF92D050"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFE73E09"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q4:Q9">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFC00000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q5:Q9">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF92D050"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFE73E09"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R5:R9">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFC00000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R5:R9">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF92D050"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFE73E09"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S5:S9">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFC00000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S5:S9">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF92D050"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFE73E09"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>